--- a/biology/Zoologie/Genocidaris/Genocidaris.xlsx
+++ b/biology/Zoologie/Genocidaris/Genocidaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genocidaris est un genre d'oursins de la famille des Trigonocidaridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins dits « réguliers », caractérisés par un test (coquille) rond couvert de radioles (piquants) réparties sur tout le corps. La bouche se situe au centre de la face orale (inférieure), et l'anus à l'opposé, au sommet de l'apex de la face aborale.
 Ces oursins sont caractérisés par un petit test en forme de dôme, avec l'ambitus situé légèrement en-dessous de la mi-hauteur.
@@ -521,8 +535,8 @@
 Les tubercules primaires sont imperforés et non crénulés.
 De petites dépressions sont présentes autour de la base des tubercules primaires, donnant une ornementation radiale, associée à d'autres dépressions occasionnelles parmi les tubercules secondaires.
 Le péristome fait presque la moitié du diamètre du test, et ses encoches buccales sont très peu prononcées. La membrane est presque nue, exception faite des pores buccaux.
-La lanterne d'Aristote est camarodonte[1].
-Ce genre est apparu au Miocène inférieur[1].
+La lanterne d'Aristote est camarodonte.
+Ce genre est apparu au Miocène inférieur.
 </t>
         </is>
       </c>
@@ -551,12 +565,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 décembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 décembre 2014) :
 Genocidaris incerta H.L. Clark, 1928 (Australie)
 Genocidaris maculata A. Agassiz, 1869 (Méditerranée et Atlantique)
-L'Echinoid Directory y ajoute des espèces fossiles[1] :
+L'Echinoid Directory y ajoute des espèces fossiles :
 Genocidaris jacquementi (Lambert, 1910) -- Burdigalien, Miocène, France.
 Genocidaris monilis (Desmarest, in Defrance, 1836) -- Miocène supérieur, France.
 Genocidaris catenata (Desor, in Agassiz &amp; Desor, 1846) -- Miocène moyen (Burdigalien-Langhien), France, Égypte.
